--- a/DATABASE/user_teach.xlsx
+++ b/DATABASE/user_teach.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\has_http\homepage\DATABASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DAFACD9A-39C5-42BC-A608-3D8A72A7F300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD204C9F-F57A-4CFA-BC21-43A4F6BA0CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83DC26F2-8FEE-45DA-B48B-439F36B2018D}"/>
+    <workbookView xWindow="1392" yWindow="1212" windowWidth="10836" windowHeight="9576" xr2:uid="{83DC26F2-8FEE-45DA-B48B-439F36B2018D}"/>
   </bookViews>
   <sheets>
     <sheet name="user_teach" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>심화 국어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스포츠 생활</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>음악사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,6 +280,56 @@
   </si>
   <si>
     <t>B F A C H E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 생활(남)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 생활(여)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제2외국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제3외국어</t>
+  </si>
+  <si>
+    <t>제4외국어</t>
+  </si>
+  <si>
+    <t>교양</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,407 +697,529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B06E17-3C15-4BA7-A49F-519BBB825F12}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>62</v>
       </c>
-      <c r="C1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="1">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+      <c r="D36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="D37" s="1">
         <v>2</v>
       </c>
     </row>

--- a/DATABASE/user_teach.xlsx
+++ b/DATABASE/user_teach.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\has_http\homepage\DATABASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD204C9F-F57A-4CFA-BC21-43A4F6BA0CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BB87AB-30DF-424C-A025-F1F712EE43F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1392" yWindow="1212" windowWidth="10836" windowHeight="9576" xr2:uid="{83DC26F2-8FEE-45DA-B48B-439F36B2018D}"/>
+    <workbookView xWindow="12108" yWindow="12" windowWidth="10836" windowHeight="9576" xr2:uid="{83DC26F2-8FEE-45DA-B48B-439F36B2018D}"/>
   </bookViews>
   <sheets>
     <sheet name="user_teach" sheetId="1" r:id="rId1"/>
@@ -33,32 +33,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>심화 국어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고전읽기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP 미적분학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수학세미나 I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B C F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수학 과제연구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,22 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G D E C F C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D H B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G E F A C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C D F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B F A C H E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>국어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +290,50 @@
   </si>
   <si>
     <t>교양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B G H A E F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고전 읽기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 미적분학1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D A C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B F D H E C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C A B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B C D E F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B B C C D D E E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B06E17-3C15-4BA7-A49F-519BBB825F12}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -710,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D1">
         <v>4</v>
@@ -721,13 +725,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -735,13 +739,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -749,13 +753,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -763,13 +767,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -777,13 +781,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -791,13 +795,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -805,13 +809,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -819,13 +823,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
@@ -833,13 +837,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -847,13 +851,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
@@ -861,13 +865,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
@@ -875,13 +879,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -889,13 +893,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
@@ -903,13 +907,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
@@ -917,13 +921,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1">
         <v>4</v>
@@ -931,13 +935,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
@@ -945,13 +949,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
@@ -959,13 +963,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -973,13 +977,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -987,13 +991,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>
@@ -1001,13 +1005,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1">
         <v>4</v>
@@ -1015,13 +1019,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
@@ -1029,13 +1033,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1">
         <v>4</v>
@@ -1043,13 +1047,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D25" s="1">
         <v>4</v>
@@ -1057,13 +1061,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D26" s="1">
         <v>4</v>
@@ -1071,13 +1075,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -1085,13 +1089,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -1099,13 +1103,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
@@ -1113,13 +1117,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
@@ -1127,13 +1131,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1">
         <v>4</v>
@@ -1141,13 +1145,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
@@ -1155,13 +1159,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
@@ -1169,13 +1173,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
         <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
@@ -1183,13 +1187,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D35" s="1">
         <v>4</v>
@@ -1197,13 +1201,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D36" s="1">
         <v>4</v>
@@ -1211,13 +1215,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
